--- a/biology/Mycologie/Maladie_cryptogamique/Maladie_cryptogamique.xlsx
+++ b/biology/Mycologie/Maladie_cryptogamique/Maladie_cryptogamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie cryptogamique, ou maladie fongique, est une maladie causée à une plante par un champignon ou un autre organisme filamenteux (cas des Oomycetes) parasite. Lorsque c'est un animal qui est atteint, on parle plutôt de mycose. L'étude des champignons est la mycologie, et la mycologie végétale est une branche de la pathologie végétale.
 </t>
@@ -511,7 +523,9 @@
           <t>Définition de maladie cryptogamique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, les champignons ainsi que d'autres organismes filamenteux étaient classés parmi les plantes cryptogames. Ce nom est resté chez les plantes pour les maladies causées par ces organismes. Les différentes formes de maladies cryptogamiques représentent environ 90 % des maladies des végétaux.
 </t>
@@ -542,7 +556,9 @@
           <t>Évolution générale d'une maladie cryptogamique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contamination : les spores des champignons se déposent sur les plantes (transportées par le vent par exemple), germent et pénètrent à l'intérieur des tissus. Le champignon passe par les orifices naturels (stomates, lenticelles) ou pénètre par des blessures (notamment celles provoquées par des insectes ou par des tailles de branches), ou encore il est capable de traverser la cuticule.
 Période d'incubation : le champignon se ramifie et envahit les cellules des tissus ou les espaces intercellulaires.
@@ -577,7 +593,9 @@
           <t>Exemples de maladies cryptogamiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alternariose
 Anthracnose
@@ -614,7 +632,7 @@
 Sclérotiniose
 Tavelure
 Verticilliose (Verticillium albo-atrum) et (Verticillium dahliae).
-En 2012, dans la revue Molecular Plant Pathology, 495 phytopathologues ont établi une liste des dix espèces ou genres de champignons les plus importants du point de vue scientifique et économique[1].
+En 2012, dans la revue Molecular Plant Pathology, 495 phytopathologues ont établi une liste des dix espèces ou genres de champignons les plus importants du point de vue scientifique et économique.
 Magnaporthe oryzae
 Botrytis cinerea
 Puccinia spp.
